--- a/optimise/LiFeV2O7_lith/exp_distances.xlsx
+++ b/optimise/LiFeV2O7_lith/exp_distances.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Li-Fe</t>
+          <t>Fe-O</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -477,6 +477,26 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Li-Fe</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Li-O</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -514,990 +534,2634 @@
           <t>orb</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>chgnet</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>dft</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>m3gnet</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>orb</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>chgnet</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>dft</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>m3gnet</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>mace</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>orb</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03867467319958573</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>0.0003819527986346216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0139257399296755</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
+        <v>0.01949670352077915</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01097465161772027</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001867946436996615</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03867467319958573</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
         <v>0.01705121067376769</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>0.03460544079296701</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>0.05053288686101665</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03867467319958751</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>0.07951640662082271</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005699194027086296</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
+        <v>0.09039286906958921</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07316374011708771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08695627395816796</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03867467319958751</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
         <v>0.01705121067376414</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>0.03460544079296346</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
         <v>0.05053288686101132</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03867467319958662</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>0.02422400526432966</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02319503511124976</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
+        <v>0.02218689242926697</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03198332538465598</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02532956688119459</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03867467319958662</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
         <v>0.01705121067376503</v>
       </c>
-      <c r="F6" t="n">
+      <c r="L6" t="n">
         <v>0.03460544079296612</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
         <v>0.05053288686101043</v>
       </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0386746731995915</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>0.007530662748787442</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07409468298997313</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
+        <v>0.02691596260114748</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02404687036429554</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02973570749862642</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0386746731995915</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>0.01705121067376991</v>
       </c>
-      <c r="F7" t="n">
+      <c r="L7" t="n">
         <v>0.03460544079296657</v>
       </c>
-      <c r="G7" t="n">
+      <c r="M7" t="n">
         <v>0.05053288686101398</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03457642533829386</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>0.01050657519614839</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02023737611500076</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
+        <v>0.004968433994491761</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01064659736457951</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.006067654371430198</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03457642533829386</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>0.0003686090113967921</v>
       </c>
-      <c r="F8" t="n">
+      <c r="L8" t="n">
         <v>0.03602848495959421</v>
       </c>
-      <c r="G8" t="n">
+      <c r="M8" t="n">
         <v>0.01960921130168947</v>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03457642533830141</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>0.05595191630289875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01125755273972473</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
+        <v>0.0600707812554262</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04992620683900206</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03511374288903824</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03457642533830141</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>0.0003686090113985685</v>
       </c>
-      <c r="F9" t="n">
+      <c r="L9" t="n">
         <v>0.03602848495959776</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
         <v>0.01960921130169302</v>
       </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03457642533829564</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>0.0003819527986372862</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003423556068365752</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
+        <v>0.01949670352077915</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01097465161773492</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00186794643698418</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03457642533829564</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>0.0003686090113950158</v>
       </c>
-      <c r="F10" t="n">
+      <c r="L10" t="n">
         <v>0.03602848495959154</v>
       </c>
-      <c r="G10" t="n">
+      <c r="M10" t="n">
         <v>0.01960921130169613</v>
       </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03457642533829519</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>0.07951640662083692</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03500065488819715</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
+        <v>0.09039286906959276</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07316374011710458</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.08695627395816974</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03457642533829519</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>0.000368609011395904</v>
       </c>
-      <c r="F11" t="n">
+      <c r="L11" t="n">
         <v>0.03602848495959332</v>
       </c>
-      <c r="G11" t="n">
+      <c r="M11" t="n">
         <v>0.01960921130168902</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1106550778696342</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>0.02422400526432655</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01247846749281289</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
+        <v>0.02218689242927674</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03198332538464843</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02532956688118415</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1106550778696342</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>0.1705530624099314</v>
       </c>
-      <c r="F12" t="n">
+      <c r="L12" t="n">
         <v>0.0708136086944946</v>
       </c>
-      <c r="G12" t="n">
+      <c r="M12" t="n">
         <v>0.131037193049174</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1106550778696178</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>0.007530662748787886</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0266605155347186</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
+        <v>0.02691596260115015</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02404687036427289</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02973570749864862</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1106550778696178</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>0.1705530624099305</v>
       </c>
-      <c r="F13" t="n">
+      <c r="L13" t="n">
         <v>0.07081360869448527</v>
       </c>
-      <c r="G13" t="n">
+      <c r="M13" t="n">
         <v>0.1310371930491638</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1106550778696351</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>0.01050657519614884</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01281939319596082</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
+        <v>0.004968433994502197</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0106465973646046</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.006067654371429088</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1106550778696351</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
         <v>0.1705530624099323</v>
       </c>
-      <c r="F14" t="n">
+      <c r="L14" t="n">
         <v>0.07081360869449282</v>
       </c>
-      <c r="G14" t="n">
+      <c r="M14" t="n">
         <v>0.1310371930491736</v>
       </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1106550778696276</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>0.05595191630289964</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06968773622710733</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
+        <v>0.06007078125542886</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04992620683901805</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03511374288902891</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1106550778696276</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>0.1705530624099283</v>
       </c>
-      <c r="F15" t="n">
+      <c r="L15" t="n">
         <v>0.0708136086944875</v>
       </c>
-      <c r="G15" t="n">
+      <c r="M15" t="n">
         <v>0.1310371930491678</v>
       </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>0.249646434985844</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.0003819527986355098</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.009715687675555751</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
+        <v>0.01949670352078403</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01097465161772249</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.001867946437002832</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.249646434985844</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>0.2589440961910605</v>
       </c>
-      <c r="F16" t="n">
+      <c r="L16" t="n">
         <v>0.2556899027195163</v>
       </c>
-      <c r="G16" t="n">
+      <c r="M16" t="n">
         <v>0.1718262648232192</v>
       </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05941169055393303</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>0.07951640662082493</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.005768230017542564</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
+        <v>0.09039286906959454</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.07316374011708371</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08695627395816263</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05941169055393303</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>0.04369723148666527</v>
       </c>
-      <c r="F17" t="n">
+      <c r="L17" t="n">
         <v>0.02085552608474073</v>
       </c>
-      <c r="G17" t="n">
+      <c r="M17" t="n">
         <v>0.06191678106699738</v>
       </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1084621936146286</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>0.02422400526432567</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07700445954974899</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
+        <v>0.02218689242926697</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0319833253846511</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0253295668811937</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1084621936146286</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
         <v>0.1195080594011504</v>
       </c>
-      <c r="F18" t="n">
+      <c r="L18" t="n">
         <v>0.1303719082649506</v>
       </c>
-      <c r="G18" t="n">
+      <c r="M18" t="n">
         <v>0.03461727162758699</v>
       </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2496464349858472</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>0.007530662748789663</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06085604260477639</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
+        <v>0.02691596260114881</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02404687036430131</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02973570749862864</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2496464349858472</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
         <v>0.2589440961910685</v>
       </c>
-      <c r="F19" t="n">
+      <c r="L19" t="n">
         <v>0.255689902719495</v>
       </c>
-      <c r="G19" t="n">
+      <c r="M19" t="n">
         <v>0.1718262648232498</v>
       </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05941169055393081</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>0.01050657519615528</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001567742004361605</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
+        <v>0.004968433994494204</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01064659736457751</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.00606765437142931</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05941169055393081</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>0.04369723148666127</v>
       </c>
-      <c r="F20" t="n">
+      <c r="L20" t="n">
         <v>0.02085552608473362</v>
       </c>
-      <c r="G20" t="n">
+      <c r="M20" t="n">
         <v>0.06191678106700005</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1084621936146251</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>0.05595191630290364</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03500369847185736</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
+        <v>0.06007078125542797</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04992620683900073</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03511374288900537</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1084621936146251</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
         <v>0.1195080594011482</v>
       </c>
-      <c r="F21" t="n">
+      <c r="L21" t="n">
         <v>0.1303719082649542</v>
       </c>
-      <c r="G21" t="n">
+      <c r="M21" t="n">
         <v>0.03461727162758566</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2496464349858436</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>0.0003819527986403948</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.008957141396007007</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
+        <v>0.01949670352077693</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01097465161773759</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001867946436974854</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2496464349858436</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
         <v>0.2589440961910627</v>
       </c>
-      <c r="F22" t="n">
+      <c r="L22" t="n">
         <v>0.2556899027195185</v>
       </c>
-      <c r="G22" t="n">
+      <c r="M22" t="n">
         <v>0.1718262648232227</v>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05941169055393614</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>0.07951640662083648</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01663143219084517</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
+        <v>0.09039286906959365</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.07316374011710236</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.08695627395815775</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05941169055393614</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
         <v>0.04369723148666305</v>
       </c>
-      <c r="F23" t="n">
+      <c r="L23" t="n">
         <v>0.0208555260847354</v>
       </c>
-      <c r="G23" t="n">
+      <c r="M23" t="n">
         <v>0.06191678106699561</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1084621936146268</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>0.02422400526433011</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05328130197243919</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
+        <v>0.02218689242927852</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03198332538464843</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02532956688118704</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1084621936146268</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
         <v>0.1195080594011486</v>
       </c>
-      <c r="F24" t="n">
+      <c r="L24" t="n">
         <v>0.1303719082649479</v>
       </c>
-      <c r="G24" t="n">
+      <c r="M24" t="n">
         <v>0.03461727162757988</v>
       </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2496464349858489</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>0.007530662748786998</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.04744057501157961</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
+        <v>0.02691596260115148</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02404687036428177</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02973570749864773</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2496464349858489</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
         <v>0.2589440961910685</v>
       </c>
-      <c r="F25" t="n">
+      <c r="L25" t="n">
         <v>0.2556899027194923</v>
       </c>
-      <c r="G25" t="n">
+      <c r="M25" t="n">
         <v>0.1718262648232449</v>
       </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05941169055394457</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>0.01050657519613662</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001782121173551365</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
+        <v>0.00496843399450797</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0106465973646015</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.006067654371427089</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05941169055394457</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
         <v>0.04369723148665638</v>
       </c>
-      <c r="F26" t="n">
+      <c r="L26" t="n">
         <v>0.02085552608473051</v>
       </c>
-      <c r="G26" t="n">
+      <c r="M26" t="n">
         <v>0.06191678106699516</v>
       </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1084621936146255</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>0.05595191630290097</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.04846899957483863</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
+        <v>0.06007078125542575</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04992620683901494</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.03511374288898717</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1084621936146255</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
         <v>0.1195080594011531</v>
       </c>
-      <c r="F27" t="n">
+      <c r="L27" t="n">
         <v>0.130371908264951</v>
       </c>
-      <c r="G27" t="n">
+      <c r="M27" t="n">
         <v>0.03461727162758299</v>
       </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>0.08646411776293528</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01008640884253964</v>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0.08684060007520689</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08797708045375341</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05539236096018385</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.01228688011746071</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09221325414024895</v>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0.03395930266171865</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03336749059218125</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01216875505484882</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>0.06731229279126061</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03465068599156318</v>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.05574995548112405</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.05373667137222049</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04722861914220045</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0.02302901071467089</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.06214638492847335</v>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0.008141341794001278</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00532317877484223</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001637689918041918</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.004330994575211911</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03606896971931262</v>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0.01396349495299232</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.004505534442250436</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02544850105538865</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.02118543444833509</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1634544277747261</v>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0.003992515154977561</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01513306662394553</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0796532744865166</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0.08646411776293084</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03320040257604706</v>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0.08684060007521044</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.08797708045376051</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05539236096018962</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0.01228688011747003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02845297736691688</v>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.03395930266171554</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03336749059218436</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01216875505484349</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.06731229279125883</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03913213572882257</v>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0557499554811236</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.05373667137221672</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.04722861914219956</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>0.02302901071468288</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.007898268853985257</v>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0.008141341793996837</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.005323178774841786</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001637689918039253</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>0.00433099457520969</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01211541428306262</v>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0.01396349495298921</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.004505534442246883</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02544850105538021</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>0.02118543444833421</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.09607682519103511</v>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0.003992515154988219</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01513306662394864</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.07965327448651593</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>0.08646411776293217</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.08490361562288262</v>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0.08684060007521044</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.08797708045375741</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05539236096017541</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>0.01228688011745227</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05694708124049042</v>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0.03395930266172309</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03336749059218747</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01216875505485637</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0.06731229279127082</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.04521022437737954</v>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0.05574995548112294</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.05373667137221849</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0472286191422</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>0.02302901071467112</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.003497941934898829</v>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0.008141341793997281</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005323178774841342</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001637689918048135</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>0.004330994575212799</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.04863968242987493</v>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0.01396349495298521</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.004505534442257986</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02544850105540064</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>0.02118543444832222</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01931426796600011</v>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0.003992515154983778</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01513306662394331</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.07965327448648951</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0.08646411776293483</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03125082200559426</v>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0.08684060007521177</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.08797708045376407</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05539236096017142</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>0.01228688011746426</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.03242574645574647</v>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0.0339593026617182</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03336749059219235</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01216875505484971</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>0.06731229279124973</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.05391995979258435</v>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0.05574995548112693</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.05373667137222116</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.04722861914219711</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>0.02302901071466357</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.04368915988535083</v>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0.008141341794003498</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.005323178774846671</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001637689918052576</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0.004330994575208802</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0306037603763174</v>
+      </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0.01396349495298788</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.004505534442247328</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0254485010553851</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>0.02118543444832843</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.09733444248752421</v>
+      </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0.003992515154988219</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01513306662395086</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.07965327448649284</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>0.006468059248123659</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0165390887625767</v>
+      </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.01872234650690929</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01599857059294507</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.002904145981627249</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>0.01541975983333677</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0274809574718331</v>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.03219230228861303</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.03180682268020218</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.004138703868801663</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>0.04908780826970682</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.003947353984518287</v>
+      </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0.07975080148684466</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03954828826253909</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04205120723886679</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>0.01807092279618239</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0502084681208137</v>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0.001514235862002167</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02638564598509641</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03454956894540961</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>0.05607257854034753</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.009228953799238049</v>
+      </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0.08588438506872098</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.05658107699123782</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1237936085854474</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>0.05819771865981593</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0729582250820866</v>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0.06900334565612809</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05776179423522665</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.007600466960401508</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>0.006468059248123215</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01786243215189964</v>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0.01872234650690929</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01599857059293486</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.002904145981628137</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>0.01541975983334876</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.03061713462244553</v>
+      </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0.03219230228861125</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.03180682268021373</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.004138703868809213</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>0.04908780826971704</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.02386712714020645</v>
+      </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0.07975080148684999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.03954828826254531</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.04205120723886591</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>0.01807092279616462</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.03786440075305109</v>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0.001514235862003055</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.02638564598508619</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03454956894540251</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>0.05607257854034264</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.03149184170567887</v>
+      </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0.08588438506872276</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.05658107699124182</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.123793608585447</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>0.05819771865982926</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05501030485413771</v>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0.0690033456561272</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05776179423522398</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.007600466960389962</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>0.006468059248115221</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.004122563962807746</v>
+      </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0.01872234650691373</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01599857059294196</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.002904145981643236</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>0.0154197598333452</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0449798925950593</v>
+      </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0.03219230228860948</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.03180682268021195</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.004138703868808769</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>0.04908780826970061</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.05617158015882406</v>
+      </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0.07975080148684333</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0395482882625422</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04205120723887079</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>0.01807092279617128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0450980907143137</v>
+      </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0.00151423586200039</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.02638564598509197</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03454956894540251</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>0.0560725785403422</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01451350652701544</v>
+      </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0.08588438506872098</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.05658107699123338</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1237936085854381</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>0.05819771865983281</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.08287222082788137</v>
+      </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0.06900334565612454</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.05776179423521866</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.007600466960407282</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>0.006468059248121882</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.004916712005321067</v>
+      </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0.01872234650691462</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01599857059293219</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.002904145981634354</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>0.01541975983334476</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.038972749582741</v>
+      </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>0.03219230228862147</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.03180682268020663</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.004138703868811877</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>0.0490878082697197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.04898975570029762</v>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0.07975080148684999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.03954828826255019</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04205120723886591</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>0.01807092279617839</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.05393749791765234</v>
+      </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0.001514235862004831</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.02638564598508752</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03454956894540295</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>0.05607257854035907</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01601462105928286</v>
+      </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0.08588438506872764</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.05658107699123915</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1237936085854612</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>0.05819771865983325</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.03454488107441112</v>
+      </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0.06900334565612498</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.05776179423522709</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.007600466960397512</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1509,6 +3173,18 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1520,6 +3196,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1531,6 +3219,18 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1542,6 +3242,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1553,6 +3265,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1564,6 +3288,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1575,6 +3311,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1586,6 +3334,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1597,6 +3357,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1608,6 +3380,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1619,6 +3403,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1630,6 +3426,18 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1641,6 +3449,18 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1652,6 +3472,18 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1663,6 +3495,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1674,6 +3518,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1685,6 +3541,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1696,6 +3564,18 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1707,6 +3587,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1718,6 +3610,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1729,6 +3633,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1740,6 +3656,18 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1751,6 +3679,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1762,6 +3702,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1773,6 +3725,18 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1784,6 +3748,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1795,6 +3771,18 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1806,9 +3794,1173 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
